--- a/public/grn.xlsx
+++ b/public/grn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20B4542-8C86-499E-A064-E84BE90638E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{979A7A62-8AFC-46E6-B747-CD5B100A48E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Purchase Order ID</t>
   </si>
@@ -66,18 +66,6 @@
     <t>FOC</t>
   </si>
   <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Purchasing Price</t>
-  </si>
-  <si>
-    <t>GST Rate</t>
-  </si>
-  <si>
-    <t>Advance Income Tax</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
   </si>
   <si>
     <t>2023-08-05 07:27:42</t>
-  </si>
-  <si>
-    <t>Box</t>
   </si>
   <si>
     <t>t2</t>
@@ -449,18 +434,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,20 +492,8 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -518,7 +501,7 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -536,31 +519,19 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -568,7 +539,7 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -586,31 +557,19 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -618,7 +577,7 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -636,28 +595,16 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
